--- a/xlsx/联合国军_intext.xlsx
+++ b/xlsx/联合国军_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="742">
   <si>
     <t>联合国军</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联合国军</t>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联合国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
   </si>
   <si>
-    <t>首爾</t>
+    <t>首尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%B1%B1%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>龍山基地</t>
+    <t>龙山基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E6%88%98</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E7%90%86%E4%BC%9A84%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E5%BF%97%E6%84%BF%E5%86%9B</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E7%AC%AC702%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會第702號決議</t>
+    <t>联合国安全理事会第702号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%9C%9D%E9%AE%AE%E7%9B%B8%E9%97%9C%E6%B1%BA%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國安全理事會朝鮮相關決議列表</t>
+    <t>联合国安全理事会朝鲜相关决议列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%A9%E4%BA%BA%E6%9D%83%E7%8A%B6%E5%86%B5%E8%B0%83%E6%9F%A5%E5%A7%94%E5%91%98%E4%BC%9A%E6%8A%A5%E5%91%8A</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%8383%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會83號決議</t>
+    <t>联合国安理会83号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%8385%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會85號決議</t>
+    <t>联合国安理会85号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%83%E7%AC%AC90%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會第90號決議</t>
+    <t>联合国安理会第90号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A377%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E7%AC%AC498%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會第498號決議</t>
+    <t>联合国大会第498号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%90%86%E4%BC%9A</t>
@@ -299,19 +299,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%96%80%E5%BA%97</t>
   </si>
   <si>
-    <t>板門店</t>
+    <t>板门店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E4%BA%BA%E6%B0%91%E8%BB%8D</t>
   </si>
   <si>
-    <t>朝鮮人民軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%81%9C%E6%88%B0%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>朝鮮停戰協定</t>
+    <t>朝鲜停战协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%85%AB%E5%BA%A6%E7%BA%BF</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%9F%8E</t>
   </si>
   <si>
-    <t>漢城</t>
+    <t>汉城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%B8%A3</t>
   </si>
   <si>
-    <t>神奈川縣</t>
+    <t>神奈川县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E9%96%93%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>座間基地</t>
+    <t>座间基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89%E5%86%9B%E9%98%9F%E5%88%97%E8%A1%A8</t>
@@ -371,31 +368,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>澳大利亞陸軍</t>
+    <t>澳大利亚陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC1%E9%A8%8E%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第1騎兵師</t>
+    <t>美国陆军第1骑兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC1%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國第1海軍陸戰師</t>
+    <t>美国第1海军陆战师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/7th_Infantry_Division_(United_States)</t>
@@ -455,9 +452,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
@@ -479,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -497,19 +491,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>希臘王國</t>
+    <t>希腊王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -521,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -533,31 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E9%9F%93%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐韓美軍</t>
+    <t>驻韩美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E7%BE%8E%E8%81%AF%E5%90%88%E8%BB%8D%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>韓美聯合軍司令部</t>
+    <t>韩美联合军司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>大韓民國國軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>韓國陸軍</t>
+    <t>韩国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E9%95%BF</t>
@@ -569,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%B0%91%E6%B1%82</t>
   </si>
   <si>
-    <t>韓民求</t>
+    <t>韩民求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -587,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E9%9F%93%E6%88%B0%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>倫敦韓戰紀念碑</t>
+    <t>伦敦韩战纪念碑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Memorial_Cemetery</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>朝鮮日報</t>
+    <t>朝鲜日报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/British_Commonwealth_Forces_Korea</t>
@@ -635,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E7%B6%B2</t>
   </si>
   <si>
-    <t>人民網</t>
+    <t>人民网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -653,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E7%B5%B1%E4%B8%80%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>朝鮮半島統一問題</t>
+    <t>朝鲜半岛统一问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89%E7%A9%BA%E6%88%98</t>
@@ -683,67 +671,67 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%95%E6%B4%A5%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>甕津戰役</t>
+    <t>甕津战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E5%9F%8E-%E6%B1%B6%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>開城-汶山戰役</t>
+    <t>开城-汶山战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%B5%AA%E6%B5%A6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>高浪浦戰役</t>
+    <t>高浪浦战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B1%E5%B7%9D%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>抱川戰役</t>
+    <t>抱川战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%B1%86%E5%B7%9D%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>東豆川戰役</t>
+    <t>东豆川战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%B7%9D%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>春川戰役</t>
+    <t>春川战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%94%BF%E5%BA%9C%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>議政府戰役</t>
+    <t>议政府战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%BC%A2%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>第一次漢城戰役</t>
+    <t>第一次汉城战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E9%99%B5%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>江陵戰役</t>
+    <t>江陵战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E9%98%BF%E9%87%8C%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>彌阿里戰役</t>
+    <t>弥阿里战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%B1%9F%E6%88%B0%E5%BD%B9_(1950%E5%B9%B4)</t>
   </si>
   <si>
-    <t>漢江戰役 (1950年)</t>
+    <t>汉江战役 (1950年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Chumonchin_Chan</t>
@@ -755,19 +743,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%8B%E8%88%88-%E5%AE%89%E9%A4%8A-%E6%B0%B4%E5%8E%9F%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>始興-安養-水原戰役</t>
+    <t>始兴-安养-水原战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>聯合國軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>烏山戰役</t>
+    <t>乌山战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Pyongtaek</t>
@@ -785,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>大田戰役</t>
+    <t>大田战役</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%EC%98%81%EB%8D%95-%EA%B0%95%EA%B5%AC_%EC%A0%84%ED%88%AC</t>
@@ -797,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>安東戰役</t>
+    <t>安东战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%A6%E9%A0%85%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>浦項戰役</t>
+    <t>浦项战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Tabu-dong</t>
@@ -821,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E5%B7%9E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>慶州戰役</t>
+    <t>庆州战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B7%9E%E6%B5%B7%E6%88%98</t>
@@ -833,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%BC%A2%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>第二次漢城戰役</t>
+    <t>第二次汉城战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Hill_282</t>
@@ -845,25 +830,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E9%99%A2%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>沙里院戰役</t>
+    <t>沙里院战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4-%E5%85%83%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>平壤-元山戰役</t>
+    <t>平壤-元山战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4%E6%88%B0%E5%BD%B9_(1950%E5%B9%B4)</t>
   </si>
   <si>
-    <t>平壤戰役 (1950年)</t>
+    <t>平壤战役 (1950年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>元山戰役</t>
+    <t>元山战役</t>
   </si>
   <si>
     <t>https://ko.wikipedia.org/wiki/%EC%A0%9C2%EC%B0%A8_%EB%8F%99%EB%91%90%EC%B2%9C_%EC%A0%84%ED%88%AC</t>
@@ -875,9 +860,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E5%BF%97%E9%A1%98%E8%BB%8D</t>
   </si>
   <si>
-    <t>中國人民志願軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%BE%8E%E6%8F%B4%E6%9C%9D%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%88%98%E5%BD%B9</t>
   </si>
   <si>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%B7%9D%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>博川戰鬥</t>
+    <t>博川战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%BE%8E%E6%8F%B4%E6%9C%9D%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%88%98%E5%BD%B9</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%B7%9D%E6%B1%9F%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>清川江戰役</t>
+    <t>清川江战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Wawon</t>
@@ -959,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%B1%9F%E5%8D%97%E5%B2%B8%E9%98%B2%E7%A6%A6%E6%88%B0</t>
   </si>
   <si>
-    <t>漢江南岸防禦戰</t>
+    <t>汉江南岸防御战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_the_Twin_Tunnels</t>
@@ -977,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%A5%E5%B9%B3%E9%87%8C%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>砥平里戰鬥</t>
+    <t>砥平里战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%95%E8%A3%82%E8%80%85%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>撕裂者行動</t>
+    <t>撕裂者行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E6%AC%A1%E6%B1%89%E5%9F%8E%E6%88%98%E5%BD%B9</t>
@@ -1007,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B9%B3%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>加平戰鬥</t>
+    <t>加平战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%891951%E5%B9%B4%E5%A4%8F%E7%A7%8B%E5%AD%A3%E6%88%98%E5%BD%B9</t>
@@ -1085,25 +1067,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%A6%E9%98%B2%E6%9D%B1%E5%B1%B1%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>上浦防東山戰鬥</t>
+    <t>上浦防东山战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B3%B4%E6%B4%9E%E5%8C%97%E5%B1%B1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>石峴洞北山戰役</t>
+    <t>石岘洞北山战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%AA%E6%9D%91%E5%8D%97%E5%B1%B1%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>坪村南山戰鬥</t>
+    <t>坪村南山战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B3%B4%E6%B4%9E%E5%8C%97%E5%B1%B1%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>石峴洞北山戰鬥</t>
+    <t>石岘洞北山战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%891953%E5%B9%B4%E5%A4%8F%E5%AD%A3%E6%88%98%E5%BD%B9</t>
@@ -1115,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E9%A6%96%E6%B4%9E%E5%8D%97%E5%B1%B1%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>座首洞南山戰鬥</t>
+    <t>座首洞南山战斗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outpost_Harry</t>
@@ -1133,15 +1115,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%9F%8E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>金城戰役</t>
+    <t>金城战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%81%9C%E6%88%98%E5%8D%8F%E5%AE%9A</t>
   </si>
   <si>
-    <t>朝鲜停战协定</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%96%A4%E9%87%8C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
@@ -1163,25 +1142,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%B7%9E%E5%9B%9B%C2%B7%E4%B8%89%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>濟州四·三事件</t>
+    <t>济州四·三事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%B1%9F%E5%A4%A7%E6%A9%8B%E7%88%86%E7%A0%B4%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢江大橋爆破事件</t>
+    <t>汉江大桥爆破事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%B0%8E%E8%81%AF%E7%9B%9F%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>保導聯盟事件</t>
+    <t>保导联盟事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E9%98%B2%E8%A1%9B%E8%BB%8D%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>國民防衛軍事件</t>
+    <t>国民防卫军事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E4%BA%95%E7%AA%9F%E5%B1%A0%E6%9D%80%E4%BA%8B%E4%BB%B6</t>
@@ -1193,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%B8%85%C2%B7%E5%92%B8%E9%99%BD%E5%B1%A0%E6%AE%BA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>山清·咸陽屠殺事件</t>
+    <t>山清·咸阳屠杀事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E6%98%8C%E5%B1%A0%E6%9D%80%E4%BA%8B%E4%BB%B6</t>
@@ -1205,19 +1184,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%8F%AF%E5%B3%B6%E5%B1%A0%E6%AE%BA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>江華島屠殺事件</t>
+    <t>江华岛屠杀事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%8A%E5%B7%9E%E5%B1%A0%E6%AE%BA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>南楊州屠殺事件</t>
+    <t>南杨州屠杀事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%9F%8E%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8%E9%99%84%E5%B1%AC%E9%86%AB%E9%99%A2%E5%B1%A0%E6%AE%BA%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢城國立大學附屬醫院屠殺事件</t>
+    <t>汉城国立大学附属医院屠杀事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/303%E9%AB%98%E5%9C%B0%E5%B1%A0%E6%9D%80</t>
@@ -1229,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EC-121%E5%87%BB%E8%90%BD%E4%BA%8B%E4%BB%B6</t>
@@ -1259,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%B0%BE%E5%B3%B6%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>實尾島事件</t>
+    <t>实尾岛事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%B8%96%E5%85%89%E4%BA%8B%E4%BB%B6</t>
@@ -1283,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E7%99%BB%E5%8D%8A%E5%B3%B6%E6%B2%BF%E6%B5%B7%E4%B8%8D%E5%AF%A9%E8%88%B9%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>能登半島沿海不審船事件</t>
+    <t>能登半岛沿海不审船事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%BB%B6%E5%9D%AA%E6%B5%B7%E6%88%98</t>
@@ -1307,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9D%92%E5%B3%B6%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>大青島海戰</t>
+    <t>大青岛海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%AE%89%E5%8F%B7%E6%B2%89%E6%B2%A1%E4%BA%8B%E4%BB%B6</t>
@@ -1331,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%A3%AB%E5%85%B5%E8%AA%A4%E5%90%91%E5%AE%A2%E6%A9%9F%E9%96%8B%E7%81%AB%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>韓國士兵誤向客機開火事件</t>
+    <t>韩国士兵误向客机开火事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2013年朝鮮半島危機</t>
+    <t>2013年朝鲜半岛危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E5%8F%A4%E7%89%B9%E9%9B%B7%E6%96%AF</t>
@@ -1391,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -1409,31 +1388,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
+    <t>联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_specialized_agencies_of_the_United_Nations</t>
@@ -1445,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -1457,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Capital_Development_Fund</t>
@@ -1469,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E6%B3%95%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國國際貿易法委員會</t>
+    <t>联合国国际贸易法委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -1481,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國環境署</t>
+    <t>联合国环境署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNEP_OzonAction</t>
@@ -1505,31 +1484,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%8F%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>聯合國人口基金</t>
+    <t>联合国人口基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E5%B1%85%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國人居署</t>
+    <t>联合国人居署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%9B%A3%E6%B0%91%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國難民署</t>
+    <t>联合国难民署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權理事會</t>
+    <t>联合国人权理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Institute_for_Disarmament_Research</t>
@@ -1553,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聯合國大學</t>
+    <t>联合国大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/UNU-OP</t>
@@ -1595,13 +1574,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B3%A7%E9%A3%9F%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>世界糧食計劃署</t>
+    <t>世界粮食计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%84%9B%E6%BB%8B%E7%97%85%E8%81%AF%E5%90%88%E8%A6%8F%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國愛滋病聯合規劃署</t>
+    <t>联合国爱滋病联合规划署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Interregional_Crime_and_Justice_Research_Institute</t>
@@ -1613,13 +1592,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%99%BC%E5%B1%95%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合國社會發展研究所</t>
+    <t>联合国社会发展研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際民用航空組織</t>
+    <t>国际民用航空组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Fund_for_Agricultural_Development</t>
@@ -1631,25 +1610,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海事組織</t>
+    <t>国际海事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
+    <t>国际电信联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Development_Assistance_Framework</t>
@@ -1667,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E8%82%B2%E3%80%81%E7%A7%91%E5%AD%B8%E5%8F%8A%E6%96%87%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教育、科學及文化組織</t>
+    <t>联合国教育、科学及文化组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Fund_for_International_Partnerships_(UNFIP)</t>
@@ -1697,31 +1676,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E5%9C%8B%E9%83%B5%E6%94%BF%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>萬國郵政聯盟</t>
+    <t>万国邮政联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界智慧財產權組織</t>
+    <t>世界智慧财产权组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E6%B3%95%E9%99%A2%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>柬埔寨法院特別法庭</t>
+    <t>柬埔寨法院特别法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE%E9%97%AE%E9%A2%98%E5%9B%BD%E9%99%85%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
@@ -1733,13 +1712,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%95%8F%E9%A1%8C%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>前南斯拉夫問題國際刑事法庭</t>
+    <t>前南斯拉夫问题国际刑事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E7%89%B9%E5%88%A5%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>獅子山特別法庭</t>
+    <t>狮子山特别法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_Panels_of_the_Dili_District_Court</t>
@@ -1799,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%81%93%E4%BA%8B%E5%8B%99%E5%8D%94%E8%AA%BF%E5%BB%B3</t>
   </si>
   <si>
-    <t>聯合國人道事務協調廳</t>
+    <t>联合国人道事务协调厅</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_Disarmament_Affairs</t>
@@ -1811,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Office_of_the_High_Representative_for_the_Least_Developed_Countries,_Landlocked_Developing_Countries_and_Small_Island_Developing_States</t>
@@ -1835,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B8%BD%E9%83%A8%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>聯合國總部大樓</t>
+    <t>联合国总部大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%97%A5%E5%86%85%E7%93%A6%E5%8A%9E%E4%BA%8B%E5%A4%84</t>
@@ -1865,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A5%88%E6%B4%9B%E6%AF%94%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國奈洛比辦事處</t>
+    <t>联合国奈洛比办事处</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_organizations_by_location</t>
@@ -1877,25 +1856,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%8D%80%E5%9F%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合國區域集團</t>
+    <t>联合国区域集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國安全理事會常任理事國</t>
+    <t>联合国安全理事会常任理事国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Union_and_the_United_Nations</t>
@@ -1913,13 +1892,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%AD%A6%E5%AF%9F</t>
@@ -1931,7 +1910,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%B1%E5%90%8C%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>聯合國共同宣言</t>
+    <t>联合国共同宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BB%B4%E6%8C%81%E5%92%8C%E5%B9%B3%E8%A1%8C%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -1943,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8C%81%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>維持和平</t>
+    <t>维持和平</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_United_Nations_peacekeeping</t>
@@ -1967,13 +1946,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國決議</t>
+    <t>联合国决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_resolutions_at_the_sixty-sixth_session_of_the_United_Nations_General_Assembly</t>
@@ -1991,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會決議</t>
+    <t>联合国安全理事会决议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_United_Nations_Security_Council_resolutions_concerning_Cyprus</t>
@@ -2099,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>聯合國憲章</t>
+    <t>联合国宪章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Global_Compact</t>
@@ -2123,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%80%9A%E8%A1%8C%E8%AD%89</t>
   </si>
   <si>
-    <t>聯合國通行證</t>
+    <t>联合国通行证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Official_languages_of_the_United_Nations</t>
@@ -2135,7 +2114,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%95%A6%E6%A3%AE%E6%9E%97%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>布列敦森林體系</t>
+    <t>布列敦森林体系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Delivering_as_One</t>
@@ -2153,7 +2132,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>千禧高峰會</t>
+    <t>千禧高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B9%B4%E5%8F%91%E5%B1%95%E7%9B%AE%E6%A0%87</t>
@@ -2165,7 +2144,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>聯合國改革</t>
+    <t>联合国改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%AE%AE%E4%BC%9A%E5%A4%A7%E4%BC%9A</t>
@@ -2177,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%BA%AA%E5%BF%B5%E6%B4%BB%E5%8A%A8</t>
@@ -2189,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>聯合國日</t>
+    <t>联合国日</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_television_film_series</t>
@@ -2201,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96%E4%B8%AD%E7%9A%84%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>大眾文化中的聯合國</t>
+    <t>大众文化中的联合国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comprehensive_Nuclear-Test-Ban_Treaty_Organization</t>
@@ -2213,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8E%9F%E5%AD%90%E8%83%BD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>國際原子能機構</t>
+    <t>国际原子能机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E4%BA%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際刑事法院</t>
+    <t>国际刑事法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B5%B7%E5%BA%95%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -2237,19 +2216,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%AD%A2%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>禁止化學武器組織</t>
+    <t>禁止化学武器组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4053,7 +4032,7 @@
         <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4108,10 +4087,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4137,10 +4116,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4166,10 +4145,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4195,10 +4174,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4224,10 +4203,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4253,10 +4232,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -4282,10 +4261,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4311,10 +4290,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4340,10 +4319,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4369,10 +4348,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4398,10 +4377,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4427,10 +4406,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4456,10 +4435,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4485,10 +4464,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4514,10 +4493,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4543,10 +4522,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4572,10 +4551,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4601,10 +4580,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -4630,10 +4609,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4659,10 +4638,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4688,10 +4667,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4717,10 +4696,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4746,10 +4725,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4775,10 +4754,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4804,10 +4783,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -4862,10 +4841,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4891,10 +4870,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -4920,10 +4899,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4949,10 +4928,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4978,10 +4957,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5007,10 +4986,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5036,10 +5015,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5065,10 +5044,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5094,10 +5073,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5123,10 +5102,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5152,10 +5131,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5181,10 +5160,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5210,10 +5189,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5239,10 +5218,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5268,10 +5247,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5297,10 +5276,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5326,10 +5305,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5355,10 +5334,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5384,10 +5363,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5413,10 +5392,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>46</v>
@@ -5442,10 +5421,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5471,10 +5450,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5500,10 +5479,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5529,10 +5508,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5558,10 +5537,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>10</v>
@@ -5587,10 +5566,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5616,10 +5595,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5645,10 +5624,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5674,10 +5653,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5703,10 +5682,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5732,10 +5711,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5761,10 +5740,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -5790,10 +5769,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" t="s">
         <v>115</v>
-      </c>
-      <c r="F110" t="s">
-        <v>116</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5819,10 +5798,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5848,10 +5827,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5877,10 +5856,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5906,10 +5885,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5935,10 +5914,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5967,7 +5946,7 @@
         <v>95</v>
       </c>
       <c r="F116" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5993,10 +5972,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6022,10 +6001,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6051,10 +6030,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6080,10 +6059,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6109,10 +6088,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6138,10 +6117,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6167,10 +6146,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6196,10 +6175,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6225,10 +6204,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6254,10 +6233,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6283,10 +6262,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6312,10 +6291,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6341,10 +6320,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6370,10 +6349,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -6399,10 +6378,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6428,10 +6407,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6457,10 +6436,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6486,10 +6465,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6515,10 +6494,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6544,10 +6523,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6573,10 +6552,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6602,10 +6581,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6631,10 +6610,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6660,10 +6639,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6689,10 +6668,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6747,10 +6726,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6776,10 +6755,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6805,10 +6784,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6834,10 +6813,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6863,10 +6842,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6892,10 +6871,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6921,10 +6900,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6950,10 +6929,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6979,10 +6958,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7008,10 +6987,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7037,10 +7016,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7066,10 +7045,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7095,10 +7074,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7124,10 +7103,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7153,10 +7132,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7182,10 +7161,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7211,10 +7190,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7240,10 +7219,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7269,10 +7248,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7298,10 +7277,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7327,10 +7306,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7356,10 +7335,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7385,10 +7364,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7414,10 +7393,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7443,10 +7422,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7472,10 +7451,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7501,10 +7480,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7530,10 +7509,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7559,10 +7538,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7588,10 +7567,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7617,10 +7596,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7646,10 +7625,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7675,10 +7654,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7704,10 +7683,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7733,10 +7712,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7762,10 +7741,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7791,10 +7770,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7820,10 +7799,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7849,10 +7828,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7878,10 +7857,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7907,10 +7886,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7936,10 +7915,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7965,10 +7944,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7994,10 +7973,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8023,10 +8002,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8052,10 +8031,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8081,10 +8060,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8110,10 +8089,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8139,10 +8118,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8168,10 +8147,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8197,10 +8176,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8226,10 +8205,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8255,10 +8234,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8284,10 +8263,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>97</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8313,10 +8292,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F197" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8342,10 +8321,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8371,10 +8350,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8400,10 +8379,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8429,10 +8408,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8458,10 +8437,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8487,10 +8466,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8516,10 +8495,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8545,10 +8524,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8574,10 +8553,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8603,10 +8582,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8632,10 +8611,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8661,10 +8640,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8690,10 +8669,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8719,10 +8698,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8748,10 +8727,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8777,10 +8756,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8806,10 +8785,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8835,10 +8814,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8864,10 +8843,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8893,10 +8872,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8922,10 +8901,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8951,10 +8930,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8980,10 +8959,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9009,10 +8988,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9038,10 +9017,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9067,10 +9046,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9096,10 +9075,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9125,10 +9104,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9154,10 +9133,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9183,10 +9162,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9212,10 +9191,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9241,10 +9220,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9270,10 +9249,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9299,10 +9278,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9328,10 +9307,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -9357,10 +9336,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9386,10 +9365,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9415,10 +9394,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9444,10 +9423,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9473,10 +9452,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9502,10 +9481,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9531,10 +9510,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>6</v>
@@ -9560,10 +9539,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9589,10 +9568,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9618,10 +9597,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9647,10 +9626,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9676,10 +9655,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9705,10 +9684,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9734,10 +9713,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9763,10 +9742,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9792,10 +9771,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9821,10 +9800,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9850,10 +9829,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9879,10 +9858,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9908,10 +9887,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9937,10 +9916,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9966,10 +9945,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9995,10 +9974,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10024,10 +10003,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10053,10 +10032,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10082,10 +10061,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10111,10 +10090,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10140,10 +10119,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10169,10 +10148,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10198,10 +10177,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10227,10 +10206,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10256,10 +10235,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10285,10 +10264,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10314,10 +10293,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10343,10 +10322,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10372,10 +10351,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10401,10 +10380,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10430,10 +10409,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10459,10 +10438,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10488,10 +10467,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10517,10 +10496,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10546,10 +10525,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10575,10 +10554,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10604,10 +10583,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10633,10 +10612,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10662,10 +10641,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10691,10 +10670,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10720,10 +10699,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10749,10 +10728,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10778,10 +10757,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10807,10 +10786,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10836,10 +10815,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10865,10 +10844,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10894,10 +10873,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10923,10 +10902,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10952,10 +10931,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10981,10 +10960,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11010,10 +10989,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11039,10 +11018,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11068,10 +11047,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11097,10 +11076,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11126,10 +11105,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11155,10 +11134,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11184,10 +11163,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11213,10 +11192,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11242,10 +11221,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11271,10 +11250,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11300,10 +11279,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11329,10 +11308,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11358,10 +11337,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11387,10 +11366,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11416,10 +11395,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11445,10 +11424,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11474,10 +11453,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11503,10 +11482,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11532,10 +11511,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11561,10 +11540,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11590,10 +11569,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11619,10 +11598,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11648,10 +11627,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11677,10 +11656,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11706,10 +11685,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11735,10 +11714,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11764,10 +11743,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11793,10 +11772,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11822,10 +11801,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11851,10 +11830,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11880,10 +11859,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11909,10 +11888,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11938,10 +11917,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11967,10 +11946,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -11996,10 +11975,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12025,10 +12004,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12054,10 +12033,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12083,10 +12062,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12112,10 +12091,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G328" t="n">
         <v>4</v>
@@ -12141,10 +12120,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12170,10 +12149,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12199,10 +12178,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12228,10 +12207,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12257,10 +12236,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12286,10 +12265,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12315,10 +12294,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12344,10 +12323,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12373,10 +12352,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12402,10 +12381,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G338" t="n">
         <v>4</v>
@@ -12431,10 +12410,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12460,10 +12439,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12489,10 +12468,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12518,10 +12497,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G342" t="n">
         <v>5</v>
@@ -12547,10 +12526,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12576,10 +12555,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12605,10 +12584,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12634,10 +12613,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12663,10 +12642,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12692,10 +12671,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12750,10 +12729,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12779,10 +12758,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12808,10 +12787,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12837,10 +12816,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12866,10 +12845,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12895,10 +12874,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12924,10 +12903,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12953,10 +12932,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12982,10 +12961,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13011,10 +12990,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13040,10 +13019,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13069,10 +13048,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13098,10 +13077,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13127,10 +13106,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13156,10 +13135,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13185,10 +13164,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13214,10 +13193,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13243,10 +13222,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13272,10 +13251,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13301,10 +13280,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13330,10 +13309,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13359,10 +13338,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13388,10 +13367,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13417,10 +13396,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13446,10 +13425,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13475,10 +13454,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13504,10 +13483,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13533,10 +13512,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13562,10 +13541,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13591,10 +13570,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13620,10 +13599,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13649,10 +13628,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F381" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13678,10 +13657,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F382" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13707,10 +13686,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F383" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13736,10 +13715,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F384" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13765,10 +13744,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F385" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13794,10 +13773,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F386" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -13823,10 +13802,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F387" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13852,10 +13831,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F388" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>

--- a/xlsx/联合国军_intext.xlsx
+++ b/xlsx/联合国军_intext.xlsx
@@ -29,7 +29,7 @@
     <t>韓國</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国军</t>
+    <t>体育运动_体育运动_南非_联合国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE</t>
@@ -3534,7 +3534,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3563,7 +3563,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3592,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3650,7 +3650,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
